--- a/sentence_level/data/sentences/remove_single/2012_texas_tornado.xlsx
+++ b/sentence_level/data/sentences/remove_single/2012_texas_tornado.xlsx
@@ -2631,8 +2631,8 @@
   </sheetPr>
   <dimension ref="A1:D1156"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1035" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1050" activeCellId="0" sqref="I1050"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2651,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/sentence_level/data/sentences/remove_single/2012_texas_tornado.xlsx
+++ b/sentence_level/data/sentences/remove_single/2012_texas_tornado.xlsx
@@ -2631,8 +2631,8 @@
   </sheetPr>
   <dimension ref="A1:D1156"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A260" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G278" activeCellId="0" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6527,6 +6527,9 @@
       </c>
       <c r="C278" s="0" t="s">
         <v>279</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
